--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F6822-E41C-4FA3-ABEF-8951DE1A3020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E5004E-C15D-42E2-BB7E-A91C07809840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5">
-        <v>0.75649999999999995</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.91894999999999993</v>
+        <v>0.92020333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E5004E-C15D-42E2-BB7E-A91C07809840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC4F20-725E-46FC-A8B7-CCF07B66120D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.90459999999999996</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5">
-        <v>0.79410000000000003</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4">
-        <v>0.93420000000000003</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -684,7 +684,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="7">
-        <v>0.92989999999999995</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -694,8 +694,8 @@
       <c r="A18">
         <v>25</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.95809999999999995</v>
+      <c r="B18" s="6">
+        <v>0.97399999999999998</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -717,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="5">
-        <v>0.76729999999999998</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -761,7 +761,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="5">
-        <v>0.78469999999999995</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92020333333333326</v>
+        <v>0.92477999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC4F20-725E-46FC-A8B7-CCF07B66120D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBED132-B01E-4902-A54D-5B61369FCB25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="9">
-        <v>0.73919999999999997</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5">
-        <v>0.80710000000000004</v>
+        <v>0.82230000000000003</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -717,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="5">
-        <v>0.80200000000000005</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92477999999999994</v>
+        <v>0.92586333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBED132-B01E-4902-A54D-5B61369FCB25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97544F9-FBB1-499A-91F5-E295CDD90F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,8 +727,8 @@
       <c r="A21">
         <v>30</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.93059999999999998</v>
+      <c r="B21" s="3">
+        <v>0.95520000000000005</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -761,7 +761,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="5">
-        <v>0.79910000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -816,7 +816,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="10">
-        <v>0.97619999999999996</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="C29">
         <v>14</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92586333333333326</v>
+        <v>0.92742999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97544F9-FBB1-499A-91F5-E295CDD90F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D264895-FF8C-4900-991D-D33E94A8AA9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,7 +783,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="5">
-        <v>0.85840000000000005</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92742999999999998</v>
+        <v>0.92786333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D264895-FF8C-4900-991D-D33E94A8AA9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDB954-279E-4957-982B-A4FCB1EF257C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="9">
-        <v>0.74129999999999996</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -684,7 +684,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="7">
-        <v>0.93859999999999999</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -695,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="6">
-        <v>0.97399999999999998</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -783,7 +783,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="5">
-        <v>0.87139999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92786333333333337</v>
+        <v>0.93115000000000014</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDB954-279E-4957-982B-A4FCB1EF257C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF78622-48D1-41B2-80E0-688FD15C9B14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5">
-        <v>0.84750000000000003</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -695,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="6">
-        <v>0.98519999999999996</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -728,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="3">
-        <v>0.95520000000000005</v>
+        <v>0.95660000000000001</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -739,7 +739,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="4">
-        <v>0.90820000000000001</v>
+        <v>0.91259999999999997</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -761,7 +761,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="5">
-        <v>0.81</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93115000000000014</v>
+        <v>0.93451333333333353</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF78622-48D1-41B2-80E0-688FD15C9B14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A269B78-6DB2-42ED-8DFF-9724120F1D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -639,7 +639,7 @@
       <c r="A13">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.92559999999999998</v>
       </c>
       <c r="C13">
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="10">
-        <v>0.94940000000000002</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -672,8 +672,8 @@
       <c r="A16">
         <v>23</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.93500000000000005</v>
+      <c r="B16" s="3">
+        <v>0.96599999999999997</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -683,7 +683,7 @@
       <c r="A17">
         <v>24</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>0.95520000000000005</v>
       </c>
       <c r="C17">
@@ -706,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="3">
-        <v>0.94440000000000002</v>
+        <v>0.94510000000000005</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -717,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="5">
-        <v>0.81720000000000004</v>
+        <v>0.85980000000000001</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -728,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="3">
-        <v>0.95660000000000001</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -750,7 +750,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="6">
-        <v>0.96819999999999995</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -782,8 +782,8 @@
       <c r="A26">
         <v>37</v>
       </c>
-      <c r="B26" s="5">
-        <v>0.88800000000000001</v>
+      <c r="B26" s="4">
+        <v>0.91180000000000005</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -793,8 +793,8 @@
       <c r="A27">
         <v>38</v>
       </c>
-      <c r="B27" s="4">
-        <v>0.90459999999999996</v>
+      <c r="B27" s="7">
+        <v>0.94940000000000002</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -816,7 +816,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="10">
-        <v>0.98770000000000002</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="C29">
         <v>14</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93451333333333353</v>
+        <v>0.94108666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A269B78-6DB2-42ED-8DFF-9724120F1D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C24B07-74F2-4DF9-B5FE-19FFF758967D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5">
-        <v>0.82230000000000003</v>
+        <v>0.82589999999999997</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -639,7 +639,7 @@
       <c r="A13">
         <v>18</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>0.92559999999999998</v>
       </c>
       <c r="C13">
@@ -672,7 +672,7 @@
       <c r="A16">
         <v>23</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>0.96599999999999997</v>
       </c>
       <c r="C16">
@@ -683,7 +683,7 @@
       <c r="A17">
         <v>24</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>0.95520000000000005</v>
       </c>
       <c r="C17">
@@ -782,7 +782,7 @@
       <c r="A26">
         <v>37</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>0.91180000000000005</v>
       </c>
       <c r="C26">
@@ -793,7 +793,7 @@
       <c r="A27">
         <v>38</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>0.94940000000000002</v>
       </c>
       <c r="C27">
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.94108666666666663</v>
+        <v>0.94120666666666652</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C24B07-74F2-4DF9-B5FE-19FFF758967D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36F784C-FDCB-490D-BC6A-34B9D1104699}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>people</t>
   </si>
@@ -738,8 +738,8 @@
       <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.91259999999999997</v>
+      <c r="B22" s="7">
+        <v>0.93930000000000002</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -761,7 +761,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="5">
-        <v>0.82299999999999995</v>
+        <v>0.8266</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.94120666666666652</v>
+        <v>0.94221666666666648</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res.xlsx
+++ b/3_experts_res/SEED/res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res(不跨人)\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36F784C-FDCB-490D-BC6A-34B9D1104699}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C35484-F12C-45A6-AFC3-7B92F0456A31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>people</t>
   </si>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.91400000000000003</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -540,7 +540,7 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>0.94220000000000004</v>
       </c>
       <c r="C4">
@@ -639,7 +639,7 @@
       <c r="A13">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.92559999999999998</v>
       </c>
       <c r="C13">
@@ -672,7 +672,7 @@
       <c r="A16">
         <v>23</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.96599999999999997</v>
       </c>
       <c r="C16">
@@ -683,7 +683,7 @@
       <c r="A17">
         <v>24</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>0.95520000000000005</v>
       </c>
       <c r="C17">
@@ -705,7 +705,7 @@
       <c r="A19">
         <v>27</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>0.94510000000000005</v>
       </c>
       <c r="C19">
@@ -782,7 +782,7 @@
       <c r="A26">
         <v>37</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>0.91180000000000005</v>
       </c>
       <c r="C26">
@@ -793,7 +793,7 @@
       <c r="A27">
         <v>38</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="7">
         <v>0.94940000000000002</v>
       </c>
       <c r="C27">
@@ -850,7 +850,7 @@
       </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.94221666666666648</v>
+        <v>0.94223999999999986</v>
       </c>
     </row>
   </sheetData>
